--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Auto_10</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-27</t>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -229,7 +229,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">new_entry</t>
@@ -406,8 +406,8 @@
   </sheetPr>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD9903-A53F-4262-9165-2D9EB05A398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EC977-60F3-4F76-B0F0-21A311D1DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EC977-60F3-4F76-B0F0-21A311D1DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63170E6-AD95-4D51-ABF1-5D040B25928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63170E6-AD95-4D51-ABF1-5D040B25928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA5ECB8-9700-4F81-B45A-1427589F711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>issueNumber</t>
   </si>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -933,9 +933,6 @@
       </c>
     </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA5ECB8-9700-4F81-B45A-1427589F711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF5CFC-14EE-4D9D-8A80-2842B70AFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF5CFC-14EE-4D9D-8A80-2842B70AFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC9FE9-D4F1-4AA6-AC89-67AFA903EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -654,73 +654,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="10.33203125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="10.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="1" customWidth="1"/>
-    <col min="32" max="35" width="6.44140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.44140625" style="1" customWidth="1"/>
-    <col min="37" max="40" width="7.109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="1" customWidth="1"/>
+    <col min="32" max="35" width="6.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.42578125" style="1" customWidth="1"/>
+    <col min="37" max="40" width="7.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="1" customWidth="1"/>
     <col min="42" max="42" width="12" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.88671875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16.44140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="19.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="12.109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="16.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.85546875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="16.42578125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="19.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" style="1" customWidth="1"/>
     <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="50" width="19.88671875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.109375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="12.88671875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.33203125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="21.6640625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="24.33203125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="8.33203125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9.33203125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="6.6640625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="7.88671875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="8.6640625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.88671875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.44140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="21.7109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="24.28515625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="8.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.28515625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="6.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="7.85546875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="8.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="11.85546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
     <col min="63" max="63" width="7" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.33203125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="4.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="7.6640625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.7109375" style="1" customWidth="1"/>
     <col min="68" max="68" width="12" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9.88671875" style="1" customWidth="1"/>
-    <col min="70" max="16384" width="14.44140625" style="1"/>
+    <col min="69" max="69" width="9.85546875" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -2003,6 +2003,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC9FE9-D4F1-4AA6-AC89-67AFA903EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD11CB0D-22B8-42AE-BA6B-59DCE9D8AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD11CB0D-22B8-42AE-BA6B-59DCE9D8AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B1C53-4967-4F0B-BB04-D036F5B0FB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B88D2A-0D3C-44EA-B1A9-94E62CD0276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A19724-1172-4338-9B57-1488F0BA361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>new_entry</t>
   </si>
   <si>
@@ -285,7 +282,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -654,7 +654,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -934,40 +934,40 @@
     </row>
     <row r="2" spans="1:69">
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>68</v>
@@ -976,49 +976,49 @@
         <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A19724-1172-4338-9B57-1488F0BA361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE91453-3E4A-41C6-9927-B92DB470EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>issueNumber</t>
   </si>
@@ -285,7 +285,13 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -961,7 +967,7 @@
         <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>75</v>
@@ -1016,6 +1022,12 @@
       </c>
       <c r="BD2" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>84</v>

--- a/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 10/Auto_GeStamp_TSCD_TC10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE91453-3E4A-41C6-9927-B92DB470EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D721C1-B552-43B2-879D-A99BE2B74D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
